--- a/biology/Botanique/Homme-pendu/Homme-pendu.xlsx
+++ b/biology/Botanique/Homme-pendu/Homme-pendu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchis anthropophora
 L'homme-pendu (Orchis anthropophora) est une espèce d'orchidées terrestre européenne. L'ancien nom de genre (Aceras) signifie que la fleur est dépourvue d'éperon.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient de la forme de la fleur qui évoque un petit bonhomme pendu, les membres étant formés par les lobes du labelle et la tête par la connivence des 3 sépales et des 2 pétales supérieurs.
 Ce sont des plantes qui atteignent une hauteur de 20 à 40 cm.
@@ -547,7 +561,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes de pleine lumière à mi-ombre sur substrats calcaires secs à frais, souvent talus, bords de route, pelouses calcicoles et lisières.
 </t>
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa répartition est méditerranéo-atlantique et sur les zones alpines de basse altitude.
 Elle s'étend sur une grande partie de l'Europe : Allemagne, Angleterre, Belgique, Bosnie, Espagne, France, Italie, Portugal, Suisse, sur une partie de la Grèce, ainsi qu'en Turquie.
@@ -610,9 +628,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.
 Protégée en Hauts-de-France et dans d'autres régions
 </t>
         </is>
@@ -642,7 +662,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'homme-pendu peut s'hybrider de façon intergénérique (entre genres différents si on considère qu'il est du genre Aceras).
 ×Orchiaceras melsheimeri Rouy, 1912 désigne son hybride avec l'Orchis pourpre.
@@ -675,7 +697,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Aceras anthropomorpha (Pers.) Steud. 1840
 Aceras anthropophorum (L.) Sm. 1818
